--- a/excel_data_exploration.xlsx
+++ b/excel_data_exploration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewpace/Documents/GitHub/bellabeat_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/873498912b246574/Documents/GitHub/bellabeat_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EA0A51-0A34-7B40-B08F-8F1AC3BB6884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20000" yWindow="5900" windowWidth="28800" windowHeight="17500" xr2:uid="{AC97B48A-D096-CC4A-9585-C83CC1DBF4AC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="11" activeTab="14" xr2:uid="{AC97B48A-D096-CC4A-9585-C83CC1DBF4AC}"/>
   </bookViews>
   <sheets>
     <sheet name="daily_activity" sheetId="2" r:id="rId1"/>
@@ -35818,46 +35818,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045ACFB1-4730-1447-A2D7-F0FF6B5CF6F8}">
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="7" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.3125" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.8125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.3125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.3125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.8125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.8125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.3125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.3125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.8125" style="10" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.1875" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.6875" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.1875" style="10" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="22" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.6875" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.8125" style="7" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.8125" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.8125" style="7" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.6875" style="7" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="16.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.8125" style="7" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="15.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="7"/>
+    <col min="31" max="16384" width="10.8125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -35937,7 +35937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
@@ -36030,7 +36030,7 @@
         <v>88.218657374934907</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
@@ -36123,7 +36123,7 @@
         <v>84.729447226408595</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -36216,7 +36216,7 @@
         <v>78.038736537243196</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
@@ -36309,7 +36309,7 @@
         <v>70.571118845210194</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
@@ -36402,7 +36402,7 @@
         <v>73.512502597492499</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
@@ -36495,7 +36495,7 @@
         <v>75.045237703569597</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
@@ -36588,7 +36588,7 @@
         <v>75.4070240725665</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
@@ -36681,7 +36681,7 @@
         <v>74.045563623897493</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
@@ -36774,7 +36774,7 @@
         <v>73.997907539397104</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -36867,7 +36867,7 @@
         <v>95.169014084506998</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
@@ -36960,7 +36960,7 @@
         <v>69.758434410355704</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
@@ -37053,7 +37053,7 @@
         <v>76.287255338078296</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
@@ -37146,7 +37146,7 @@
         <v>80.0631662060797</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
@@ -37239,7 +37239,7 @@
         <v>89.456167940606306</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
@@ -37332,7 +37332,7 @@
         <v>88.161763055723796</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A17" s="7" t="s">
         <v>28</v>
       </c>
@@ -37425,7 +37425,7 @@
         <v>91.636125264443805</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
@@ -37518,7 +37518,7 @@
         <v>91.169445256897703</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A19" s="7" t="s">
         <v>30</v>
       </c>
@@ -37611,7 +37611,7 @@
         <v>97.004821738201002</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A20" s="7" t="s">
         <v>31</v>
       </c>
@@ -37704,7 +37704,7 @@
         <v>72.8450185759569</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A21" s="7" t="s">
         <v>32</v>
       </c>
@@ -37797,7 +37797,7 @@
         <v>85.787838236294704</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A22" s="7" t="s">
         <v>33</v>
       </c>
@@ -37890,7 +37890,7 @@
         <v>76.973386439757306</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A23" s="7" t="s">
         <v>34</v>
       </c>
@@ -37983,7 +37983,7 @@
         <v>75.953337562557195</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A24" s="7" t="s">
         <v>35</v>
       </c>
@@ -38076,7 +38076,7 @@
         <v>93.396157498721493</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A25" s="7" t="s">
         <v>36</v>
       </c>
@@ -38169,7 +38169,7 @@
         <v>92.041587901701305</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A26" s="7" t="s">
         <v>37</v>
       </c>
@@ -38262,7 +38262,7 @@
         <v>79.238018972526703</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A27" s="7" t="s">
         <v>38</v>
       </c>
@@ -38355,7 +38355,7 @@
         <v>77.966101694915196</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A28" s="7" t="s">
         <v>39</v>
       </c>
@@ -38448,7 +38448,7 @@
         <v>73.367563739376706</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A29" s="7" t="s">
         <v>40</v>
       </c>
@@ -38541,7 +38541,7 @@
         <v>73.171211972038904</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A30" s="7" t="s">
         <v>41</v>
       </c>
@@ -38634,7 +38634,7 @@
         <v>83.602358399381401</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A31" s="7" t="s">
         <v>42</v>
       </c>
@@ -38727,7 +38727,7 @@
         <v>82.370096053697395</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A32" s="7" t="s">
         <v>43</v>
       </c>
@@ -38820,7 +38820,7 @@
         <v>76.089936934466607</v>
       </c>
     </row>
-    <row r="33" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A33" s="8" t="s">
         <v>44</v>
       </c>
@@ -38913,7 +38913,7 @@
         <v>78.174072647345398</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A34" s="7" t="s">
         <v>45</v>
       </c>
@@ -39019,12 +39019,12 @@
       <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -39038,7 +39038,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -39053,7 +39053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -39068,7 +39068,7 @@
         <v>-0.22045890000001123</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -39083,7 +39083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -39098,7 +39098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -39113,7 +39113,7 @@
         <v>-0.88185240000001386</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -39128,7 +39128,7 @@
         <v>-1.7636964000000148</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -39143,7 +39143,7 @@
         <v>-2.2046227000000158</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -39158,7 +39158,7 @@
         <v>-1.1023113000000251</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -39173,7 +39173,7 @@
         <v>-2.4250815999999986</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -39188,7 +39188,7 @@
         <v>-2.8660078000000055</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -39203,7 +39203,7 @@
         <v>-2.4250815999999986</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -39218,7 +39218,7 @@
         <v>-1.7636964000000148</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -39233,7 +39233,7 @@
         <v>-2.4250815999999986</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -39248,7 +39248,7 @@
         <v>-2.4250815999999986</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -39263,7 +39263,7 @@
         <v>-2.2046227000000158</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -39278,7 +39278,7 @@
         <v>-2.2046227000000158</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -39293,7 +39293,7 @@
         <v>-1.7636964000000148</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -39308,7 +39308,7 @@
         <v>-2.8660078000000055</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -39323,7 +39323,7 @@
         <v>-2.8660078000000055</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -39338,7 +39338,7 @@
         <v>-2.4250815999999986</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -39353,7 +39353,7 @@
         <v>-3.3069340000000125</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -39368,7 +39368,7 @@
         <v>-1.7636964000000148</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -39383,7 +39383,7 @@
         <v>-2.2046227000000158</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -39398,7 +39398,7 @@
         <v>-3.3069340000000125</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -39413,7 +39413,7 @@
         <v>-3.0864751000000012</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -39428,7 +39428,7 @@
         <v>-2.6455489000000227</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -39443,7 +39443,7 @@
         <v>-2.2046227000000158</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -39458,7 +39458,7 @@
         <v>-2.8660078000000055</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -39473,7 +39473,7 @@
         <v>-2.8660078000000055</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -39488,7 +39488,7 @@
         <v>-0.22045890000001123</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -39503,7 +39503,7 @@
         <v>-0.88185240000001386</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -39518,7 +39518,7 @@
         <v>-1.3227702000000079</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -39533,7 +39533,7 @@
         <v>-1.3227702000000079</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -39548,7 +39548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -39563,7 +39563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -39578,7 +39578,7 @@
         <v>1.322770300000002</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -39593,7 +39593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -39608,7 +39608,7 @@
         <v>1.3227869999999768</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -39623,7 +39623,7 @@
         <v>0.44093459999999141</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -39638,7 +39638,7 @@
         <v>-1.1023112999999967</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -39653,7 +39653,7 @@
         <v>-1.3227702000000079</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -39668,7 +39668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -39683,7 +39683,7 @@
         <v>-1.9841637000000105</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -39698,7 +39698,7 @@
         <v>-2.86601619999999</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -39713,7 +39713,7 @@
         <v>-0.66139350000000263</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -39728,7 +39728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -39743,7 +39743,7 @@
         <v>-1.1023112999999967</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -39758,7 +39758,7 @@
         <v>-1.9841637000000105</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -39773,7 +39773,7 @@
         <v>-2.86601619999999</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -39788,7 +39788,7 @@
         <v>-0.66139350000000263</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -39803,7 +39803,7 @@
         <v>-0.66139350000000263</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -39818,7 +39818,7 @@
         <v>-0.88185240000001386</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -39833,7 +39833,7 @@
         <v>-1.5432458999999881</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>44</v>
       </c>
@@ -39848,7 +39848,7 @@
         <v>-0.88185240000001386</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -39863,7 +39863,7 @@
         <v>-1.5432458999999881</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -39878,7 +39878,7 @@
         <v>-1.9841637000000105</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>44</v>
       </c>
@@ -39893,7 +39893,7 @@
         <v>-0.66139350000000263</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -39908,7 +39908,7 @@
         <v>-1.1023112999999967</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>44</v>
       </c>
@@ -39923,7 +39923,7 @@
         <v>-1.9841637000000105</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>44</v>
       </c>
@@ -39938,7 +39938,7 @@
         <v>-3.0864751000000012</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>44</v>
       </c>
@@ -39953,7 +39953,7 @@
         <v>-1.7637047999999993</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>44</v>
       </c>
@@ -39968,7 +39968,7 @@
         <v>-0.88185240000001386</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>44</v>
       </c>
@@ -39983,7 +39983,7 @@
         <v>-0.66139350000000263</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>44</v>
       </c>
@@ -39998,7 +39998,7 @@
         <v>-0.88185240000001386</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>44</v>
       </c>
@@ -40013,7 +40013,7 @@
         <v>-3.9683275000000151</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>45</v>
       </c>
@@ -40028,7 +40028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>45</v>
       </c>
@@ -40056,98 +40056,98 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.1875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1875" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="12.1875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.8125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.8125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.8125" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.8125" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.8125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.8125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.8125" bestFit="1" customWidth="1"/>
     <col min="32" max="33" width="7" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.8125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.8125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="7" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.8125" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="7" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.8125" bestFit="1" customWidth="1"/>
     <col min="44" max="45" width="7" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.8125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.8125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="7" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.8125" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="7" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.8125" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="7" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.8125" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="7" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="8.6875" bestFit="1" customWidth="1"/>
     <col min="62" max="63" width="7" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.1875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="8.6875" bestFit="1" customWidth="1"/>
     <col min="66" max="67" width="7" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.1875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="8.6875" bestFit="1" customWidth="1"/>
     <col min="70" max="71" width="7" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="11.1875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="8.6875" bestFit="1" customWidth="1"/>
     <col min="74" max="75" width="7" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="11.1875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="8.6875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="11.1875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="8.6875" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="7" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.1875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="8.6875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="11.1875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="8.6875" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="7" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="11.1875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="8.6875" bestFit="1" customWidth="1"/>
     <col min="88" max="89" width="7" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="11.1875" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="9.6875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="12.1875" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9.6875" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="7" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="12.1875" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="9.6875" bestFit="1" customWidth="1"/>
     <col min="97" max="98" width="7" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.1875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="10.8125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="14.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>123</v>
       </c>
@@ -40155,7 +40155,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>89</v>
       </c>
@@ -40187,7 +40187,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" s="6" t="s">
         <v>94</v>
       </c>
@@ -40207,7 +40207,7 @@
         <v>326.94554160000001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" s="6" t="s">
         <v>95</v>
       </c>
@@ -40229,7 +40229,7 @@
         <v>618.39664549999998</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="6" t="s">
         <v>96</v>
       </c>
@@ -40249,7 +40249,7 @@
         <v>322.31582900000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" s="6" t="s">
         <v>97</v>
       </c>
@@ -40267,7 +40267,7 @@
         <v>135.5842912</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9" s="6" t="s">
         <v>98</v>
       </c>
@@ -40287,7 +40287,7 @@
         <v>325.18183679999999</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" s="6" t="s">
         <v>92</v>
       </c>
@@ -40309,7 +40309,7 @@
         <v>494.9377786</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11" s="6" t="s">
         <v>99</v>
       </c>
@@ -40331,7 +40331,7 @@
         <v>477.74172379999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="6" t="s">
         <v>100</v>
       </c>
@@ -40351,7 +40351,7 @@
         <v>323.41814870000002</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A13" s="6" t="s">
         <v>101</v>
       </c>
@@ -40371,7 +40371,7 @@
         <v>323.19768149999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="6" t="s">
         <v>102</v>
       </c>
@@ -40393,7 +40393,7 @@
         <v>446.65654810000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A15" s="6" t="s">
         <v>103</v>
       </c>
@@ -40411,7 +40411,7 @@
         <v>135.36383230000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A16" s="6" t="s">
         <v>104</v>
       </c>
@@ -40431,7 +40431,7 @@
         <v>324.07952539999997</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A17" s="6" t="s">
         <v>105</v>
       </c>
@@ -40451,7 +40451,7 @@
         <v>324.07952539999997</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A18" s="6" t="s">
         <v>106</v>
       </c>
@@ -40473,7 +40473,7 @@
         <v>479.2849698</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A19" s="6" t="s">
         <v>122</v>
       </c>
@@ -40491,7 +40491,7 @@
         <v>187.61338180000001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A20" s="6" t="s">
         <v>107</v>
       </c>
@@ -40511,7 +40511,7 @@
         <v>323.19768139999996</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A21" s="6" t="s">
         <v>108</v>
       </c>
@@ -40531,7 +40531,7 @@
         <v>322.53628790000005</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A22" s="6" t="s">
         <v>109</v>
       </c>
@@ -40551,7 +40551,7 @@
         <v>322.5362963</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A23" s="6" t="s">
         <v>110</v>
       </c>
@@ -40571,7 +40571,7 @@
         <v>322.97721409999997</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A24" s="6" t="s">
         <v>111</v>
       </c>
@@ -40593,7 +40593,7 @@
         <v>478.1826585</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A25" s="6" t="s">
         <v>112</v>
       </c>
@@ -40615,7 +40615,7 @@
         <v>404.1073164</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A26" s="6" t="s">
         <v>113</v>
       </c>
@@ -40637,7 +40637,7 @@
         <v>437.61759039999998</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A27" s="6" t="s">
         <v>93</v>
       </c>
@@ -40659,7 +40659,7 @@
         <v>480.16681370000003</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A28" s="6" t="s">
         <v>114</v>
       </c>
@@ -40677,7 +40677,7 @@
         <v>135.14336499999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A29" s="6" t="s">
         <v>115</v>
       </c>
@@ -40697,7 +40697,7 @@
         <v>322.97721409999997</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A30" s="6" t="s">
         <v>116</v>
       </c>
@@ -40715,7 +40715,7 @@
         <v>134.92290610000001</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A31" s="6" t="s">
         <v>117</v>
       </c>
@@ -40735,7 +40735,7 @@
         <v>323.19768139999996</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A32" s="6" t="s">
         <v>118</v>
       </c>
@@ -40757,7 +40757,7 @@
         <v>478.40310899999997</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A33" s="6" t="s">
         <v>119</v>
       </c>
@@ -40775,7 +40775,7 @@
         <v>136.9070615</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A34" s="6" t="s">
         <v>120</v>
       </c>
@@ -40795,7 +40795,7 @@
         <v>324.74091899999996</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A35" s="6" t="s">
         <v>121</v>
       </c>
@@ -40817,7 +40817,7 @@
         <v>447.97931849999998</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A36" s="5" t="s">
         <v>90</v>
       </c>
@@ -40861,103 +40861,103 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.8125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.8125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.8125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.8125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.8125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.8125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.8125" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.8125" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.8125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.8125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.8125" bestFit="1" customWidth="1"/>
     <col min="32" max="33" width="7" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.8125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.8125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="7" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.8125" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="7" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.8125" bestFit="1" customWidth="1"/>
     <col min="44" max="45" width="7" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.8125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.8125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="7" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.8125" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="7" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.8125" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="7" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.8125" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="7" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="8.6875" bestFit="1" customWidth="1"/>
     <col min="62" max="63" width="7" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.1875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="8.6875" bestFit="1" customWidth="1"/>
     <col min="66" max="67" width="7" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.1875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="8.6875" bestFit="1" customWidth="1"/>
     <col min="70" max="71" width="7" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="11.1875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="8.6875" bestFit="1" customWidth="1"/>
     <col min="74" max="75" width="7" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="11.1875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="8.6875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="11.1875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="8.6875" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="7" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.1875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="8.6875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="11.1875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="8.6875" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="7" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="11.1875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="8.6875" bestFit="1" customWidth="1"/>
     <col min="88" max="89" width="7" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="11.1875" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="9.6875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="12.1875" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9.6875" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="7" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="12.1875" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="9.6875" bestFit="1" customWidth="1"/>
     <col min="97" max="98" width="7" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.1875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="10.8125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="14.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>125</v>
       </c>
@@ -40965,7 +40965,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>89</v>
       </c>
@@ -40997,7 +40997,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" s="6" t="s">
         <v>94</v>
       </c>
@@ -41017,7 +41017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" s="6" t="s">
         <v>95</v>
       </c>
@@ -41039,7 +41039,7 @@
         <v>-2.8660161000000244</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="6" t="s">
         <v>96</v>
       </c>
@@ -41059,7 +41059,7 @@
         <v>-4.6297126000000048</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" s="6" t="s">
         <v>97</v>
       </c>
@@ -41077,7 +41077,7 @@
         <v>-2.2046227000000158</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9" s="6" t="s">
         <v>98</v>
       </c>
@@ -41097,7 +41097,7 @@
         <v>-1.7637048000000277</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" s="6" t="s">
         <v>92</v>
       </c>
@@ -41119,7 +41119,7 @@
         <v>-2.4250815999999986</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11" s="6" t="s">
         <v>99</v>
       </c>
@@ -41141,7 +41141,7 @@
         <v>-2.8660078000000055</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="6" t="s">
         <v>100</v>
       </c>
@@ -41161,7 +41161,7 @@
         <v>-3.5273928999999953</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A13" s="6" t="s">
         <v>101</v>
       </c>
@@ -41181,7 +41181,7 @@
         <v>-3.7478601000000253</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="6" t="s">
         <v>102</v>
       </c>
@@ -41203,7 +41203,7 @@
         <v>-5.2910977999999886</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A15" s="6" t="s">
         <v>103</v>
       </c>
@@ -41221,7 +41221,7 @@
         <v>-2.4250815999999986</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A16" s="6" t="s">
         <v>104</v>
       </c>
@@ -41241,7 +41241,7 @@
         <v>-2.8660162000000184</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A17" s="6" t="s">
         <v>105</v>
       </c>
@@ -41261,7 +41261,7 @@
         <v>-2.8660162000000184</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A18" s="6" t="s">
         <v>106</v>
       </c>
@@ -41283,7 +41283,7 @@
         <v>-1.3227618000000518</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A19" s="6" t="s">
         <v>122</v>
       </c>
@@ -41301,7 +41301,7 @@
         <v>-1.5432458999999881</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A20" s="6" t="s">
         <v>107</v>
       </c>
@@ -41321,7 +41321,7 @@
         <v>-3.7478602000000194</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A21" s="6" t="s">
         <v>108</v>
       </c>
@@ -41341,7 +41341,7 @@
         <v>-4.4092536999999936</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A22" s="6" t="s">
         <v>109</v>
       </c>
@@ -41361,7 +41361,7 @@
         <v>-4.4092453000000091</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A23" s="6" t="s">
         <v>110</v>
       </c>
@@ -41381,7 +41381,7 @@
         <v>-3.9683275000000151</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A24" s="6" t="s">
         <v>111</v>
       </c>
@@ -41403,7 +41403,7 @@
         <v>-2.4250731000000201</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A25" s="6" t="s">
         <v>112</v>
       </c>
@@ -41425,7 +41425,7 @@
         <v>-3.3069340000000125</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A26" s="6" t="s">
         <v>113</v>
       </c>
@@ -41447,7 +41447,7 @@
         <v>-5.291097700000023</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A27" s="6" t="s">
         <v>93</v>
       </c>
@@ -41469,7 +41469,7 @@
         <v>-6.3934091000000137</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A28" s="6" t="s">
         <v>114</v>
       </c>
@@ -41487,7 +41487,7 @@
         <v>-2.6455489000000227</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A29" s="6" t="s">
         <v>115</v>
       </c>
@@ -41507,7 +41507,7 @@
         <v>-3.9683275000000151</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A30" s="6" t="s">
         <v>116</v>
       </c>
@@ -41525,7 +41525,7 @@
         <v>-2.8660078000000055</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A31" s="6" t="s">
         <v>117</v>
       </c>
@@ -41545,7 +41545,7 @@
         <v>-3.7478602000000194</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A32" s="6" t="s">
         <v>118</v>
       </c>
@@ -41567,7 +41567,7 @@
         <v>-2.2046226000000217</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A33" s="6" t="s">
         <v>119</v>
       </c>
@@ -41585,7 +41585,7 @@
         <v>-0.88185240000001386</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A34" s="6" t="s">
         <v>120</v>
       </c>
@@ -41605,7 +41605,7 @@
         <v>-2.2046226000000217</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A35" s="6" t="s">
         <v>121</v>
       </c>
@@ -41627,7 +41627,7 @@
         <v>-3.968327400000021</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A36" s="5" t="s">
         <v>90</v>
       </c>
@@ -41673,23 +41673,23 @@
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.3125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.3125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.1875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -41727,7 +41727,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -41765,7 +41765,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -41803,7 +41803,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -41841,7 +41841,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -41879,7 +41879,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -41917,7 +41917,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -41955,7 +41955,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -41993,7 +41993,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -42031,7 +42031,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -42069,7 +42069,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -42107,7 +42107,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -42145,7 +42145,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -42183,7 +42183,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -42221,7 +42221,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -42259,7 +42259,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -42297,7 +42297,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -42335,7 +42335,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -42373,7 +42373,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -42411,7 +42411,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -42449,7 +42449,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -42487,7 +42487,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -42525,7 +42525,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -42563,7 +42563,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -42601,7 +42601,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -42657,9 +42657,9 @@
       <selection activeCell="D1" activeCellId="2" sqref="A1:A1048576 B1:B1048576 D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -42676,7 +42676,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -42693,7 +42693,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -42710,7 +42710,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -42727,7 +42727,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -42744,7 +42744,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -42761,7 +42761,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -42778,7 +42778,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -42795,7 +42795,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -42812,7 +42812,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -42829,7 +42829,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -42846,7 +42846,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -42863,7 +42863,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -42880,7 +42880,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -42897,7 +42897,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -42914,7 +42914,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -42931,7 +42931,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -42948,7 +42948,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -42965,7 +42965,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -42982,7 +42982,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -42999,7 +42999,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -43016,7 +43016,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -43033,7 +43033,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -43050,7 +43050,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -43067,7 +43067,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -43084,7 +43084,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -43101,7 +43101,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -43118,7 +43118,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -43135,7 +43135,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -43152,7 +43152,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -43169,7 +43169,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -43186,7 +43186,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -43203,7 +43203,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -43220,7 +43220,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -43237,7 +43237,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -43254,7 +43254,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -43271,7 +43271,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -43288,7 +43288,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -43305,7 +43305,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -43322,7 +43322,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -43339,7 +43339,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -43356,7 +43356,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -43373,7 +43373,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -43390,7 +43390,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -43407,7 +43407,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -43424,7 +43424,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -43441,7 +43441,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -43458,7 +43458,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -43475,7 +43475,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -43492,7 +43492,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -43509,7 +43509,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -43526,7 +43526,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -43543,7 +43543,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -43560,7 +43560,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -43577,7 +43577,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -43594,7 +43594,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -43611,7 +43611,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -43628,7 +43628,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -43645,7 +43645,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -43662,7 +43662,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>18</v>
       </c>
@@ -43679,7 +43679,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -43696,7 +43696,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -43713,7 +43713,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>18</v>
       </c>
@@ -43730,7 +43730,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -43747,7 +43747,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>18</v>
       </c>
@@ -43764,7 +43764,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -43781,7 +43781,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>18</v>
       </c>
@@ -43798,7 +43798,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -43815,7 +43815,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>18</v>
       </c>
@@ -43832,7 +43832,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -43849,7 +43849,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -43866,7 +43866,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -43883,7 +43883,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -43900,7 +43900,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -43917,7 +43917,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -43934,7 +43934,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -43951,7 +43951,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -43968,7 +43968,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -43985,7 +43985,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
         <v>19</v>
       </c>
@@ -44002,7 +44002,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -44019,7 +44019,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -44036,7 +44036,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A82" t="s">
         <v>19</v>
       </c>
@@ -44053,7 +44053,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A83" t="s">
         <v>19</v>
       </c>
@@ -44070,7 +44070,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -44087,7 +44087,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -44104,7 +44104,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -44121,7 +44121,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -44138,7 +44138,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -44155,7 +44155,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -44172,7 +44172,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -44189,7 +44189,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -44206,7 +44206,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -44223,7 +44223,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -44240,7 +44240,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A94" t="s">
         <v>19</v>
       </c>
@@ -44257,7 +44257,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
         <v>19</v>
       </c>
@@ -44274,7 +44274,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A96" t="s">
         <v>19</v>
       </c>
@@ -44291,7 +44291,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -44308,7 +44308,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A98" t="s">
         <v>19</v>
       </c>
@@ -44325,7 +44325,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A99" t="s">
         <v>20</v>
       </c>
@@ -44342,7 +44342,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -44359,7 +44359,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -44376,7 +44376,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -44393,7 +44393,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -44410,7 +44410,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A104" t="s">
         <v>20</v>
       </c>
@@ -44427,7 +44427,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A105" t="s">
         <v>20</v>
       </c>
@@ -44444,7 +44444,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A106" t="s">
         <v>20</v>
       </c>
@@ -44461,7 +44461,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -44478,7 +44478,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -44495,7 +44495,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A109" t="s">
         <v>20</v>
       </c>
@@ -44512,7 +44512,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A110" t="s">
         <v>20</v>
       </c>
@@ -44529,7 +44529,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A111" t="s">
         <v>20</v>
       </c>
@@ -44546,7 +44546,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A112" t="s">
         <v>20</v>
       </c>
@@ -44563,7 +44563,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A113" t="s">
         <v>20</v>
       </c>
@@ -44580,7 +44580,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -44597,7 +44597,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -44614,7 +44614,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A116" t="s">
         <v>20</v>
       </c>
@@ -44631,7 +44631,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -44648,7 +44648,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A118" t="s">
         <v>20</v>
       </c>
@@ -44665,7 +44665,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A119" t="s">
         <v>20</v>
       </c>
@@ -44682,7 +44682,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -44699,7 +44699,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A121" t="s">
         <v>20</v>
       </c>
@@ -44716,7 +44716,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A122" t="s">
         <v>20</v>
       </c>
@@ -44733,7 +44733,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A123" t="s">
         <v>20</v>
       </c>
@@ -44750,7 +44750,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -44767,7 +44767,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A125" t="s">
         <v>20</v>
       </c>
@@ -44784,7 +44784,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A126" t="s">
         <v>20</v>
       </c>
@@ -44801,7 +44801,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A127" t="s">
         <v>21</v>
       </c>
@@ -44818,7 +44818,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A128" t="s">
         <v>21</v>
       </c>
@@ -44835,7 +44835,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A129" t="s">
         <v>21</v>
       </c>
@@ -44852,7 +44852,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A130" t="s">
         <v>21</v>
       </c>
@@ -44869,7 +44869,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A131" t="s">
         <v>21</v>
       </c>
@@ -44886,7 +44886,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A132" t="s">
         <v>21</v>
       </c>
@@ -44903,7 +44903,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A133" t="s">
         <v>21</v>
       </c>
@@ -44920,7 +44920,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A134" t="s">
         <v>21</v>
       </c>
@@ -44937,7 +44937,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A135" t="s">
         <v>21</v>
       </c>
@@ -44954,7 +44954,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A136" t="s">
         <v>21</v>
       </c>
@@ -44971,7 +44971,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A137" t="s">
         <v>21</v>
       </c>
@@ -44988,7 +44988,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A138" t="s">
         <v>21</v>
       </c>
@@ -45005,7 +45005,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A139" t="s">
         <v>21</v>
       </c>
@@ -45022,7 +45022,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A140" t="s">
         <v>21</v>
       </c>
@@ -45039,7 +45039,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A141" t="s">
         <v>21</v>
       </c>
@@ -45056,7 +45056,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A142" t="s">
         <v>21</v>
       </c>
@@ -45073,7 +45073,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A143" t="s">
         <v>21</v>
       </c>
@@ -45090,7 +45090,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A144" t="s">
         <v>21</v>
       </c>
@@ -45107,7 +45107,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A145" t="s">
         <v>21</v>
       </c>
@@ -45124,7 +45124,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A146" t="s">
         <v>21</v>
       </c>
@@ -45141,7 +45141,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A147" t="s">
         <v>21</v>
       </c>
@@ -45158,7 +45158,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A148" t="s">
         <v>21</v>
       </c>
@@ -45175,7 +45175,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A149" t="s">
         <v>21</v>
       </c>
@@ -45192,7 +45192,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A150" t="s">
         <v>21</v>
       </c>
@@ -45209,7 +45209,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A151" t="s">
         <v>21</v>
       </c>
@@ -45226,7 +45226,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A152" t="s">
         <v>21</v>
       </c>
@@ -45243,7 +45243,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A153" t="s">
         <v>22</v>
       </c>
@@ -45260,7 +45260,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A154" t="s">
         <v>22</v>
       </c>
@@ -45277,7 +45277,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A155" t="s">
         <v>22</v>
       </c>
@@ -45294,7 +45294,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A156" t="s">
         <v>23</v>
       </c>
@@ -45311,7 +45311,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A157" t="s">
         <v>23</v>
       </c>
@@ -45328,7 +45328,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A158" t="s">
         <v>23</v>
       </c>
@@ -45345,7 +45345,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A159" t="s">
         <v>23</v>
       </c>
@@ -45362,7 +45362,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A160" t="s">
         <v>23</v>
       </c>
@@ -45379,7 +45379,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A161" t="s">
         <v>23</v>
       </c>
@@ -45396,7 +45396,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A162" t="s">
         <v>23</v>
       </c>
@@ -45413,7 +45413,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A163" t="s">
         <v>23</v>
       </c>
@@ -45430,7 +45430,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A164" t="s">
         <v>23</v>
       </c>
@@ -45447,7 +45447,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A165" t="s">
         <v>23</v>
       </c>
@@ -45464,7 +45464,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A166" t="s">
         <v>23</v>
       </c>
@@ -45481,7 +45481,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A167" t="s">
         <v>23</v>
       </c>
@@ -45498,7 +45498,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A168" t="s">
         <v>23</v>
       </c>
@@ -45515,7 +45515,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A169" t="s">
         <v>23</v>
       </c>
@@ -45532,7 +45532,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A170" t="s">
         <v>23</v>
       </c>
@@ -45549,7 +45549,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A171" t="s">
         <v>23</v>
       </c>
@@ -45566,7 +45566,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A172" t="s">
         <v>23</v>
       </c>
@@ -45583,7 +45583,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A173" t="s">
         <v>23</v>
       </c>
@@ -45600,7 +45600,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A174" t="s">
         <v>23</v>
       </c>
@@ -45617,7 +45617,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A175" t="s">
         <v>23</v>
       </c>
@@ -45634,7 +45634,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A176" t="s">
         <v>23</v>
       </c>
@@ -45651,7 +45651,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A177" t="s">
         <v>23</v>
       </c>
@@ -45668,7 +45668,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A178" t="s">
         <v>23</v>
       </c>
@@ -45685,7 +45685,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A179" t="s">
         <v>23</v>
       </c>
@@ -45702,7 +45702,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A180" t="s">
         <v>23</v>
       </c>
@@ -45719,7 +45719,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A181" t="s">
         <v>23</v>
       </c>
@@ -45736,7 +45736,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A182" t="s">
         <v>23</v>
       </c>
@@ -45753,7 +45753,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A183" t="s">
         <v>23</v>
       </c>
@@ -45770,7 +45770,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A184" t="s">
         <v>23</v>
       </c>
@@ -45787,7 +45787,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A185" t="s">
         <v>23</v>
       </c>
@@ -45804,7 +45804,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A186" t="s">
         <v>23</v>
       </c>
@@ -45821,7 +45821,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A187" t="s">
         <v>24</v>
       </c>
@@ -45838,7 +45838,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A188" t="s">
         <v>24</v>
       </c>
@@ -45855,7 +45855,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A189" t="s">
         <v>25</v>
       </c>
@@ -45872,7 +45872,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A190" t="s">
         <v>25</v>
       </c>
@@ -45889,7 +45889,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A191" t="s">
         <v>25</v>
       </c>
@@ -45906,7 +45906,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A192" t="s">
         <v>25</v>
       </c>
@@ -45923,7 +45923,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A193" t="s">
         <v>25</v>
       </c>
@@ -45940,7 +45940,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A194" t="s">
         <v>25</v>
       </c>
@@ -45957,7 +45957,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A195" t="s">
         <v>25</v>
       </c>
@@ -45974,7 +45974,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A196" t="s">
         <v>25</v>
       </c>
@@ -45991,7 +45991,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A197" t="s">
         <v>25</v>
       </c>
@@ -46008,7 +46008,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A198" t="s">
         <v>25</v>
       </c>
@@ -46025,7 +46025,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A199" t="s">
         <v>25</v>
       </c>
@@ -46042,7 +46042,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A200" t="s">
         <v>25</v>
       </c>
@@ -46059,7 +46059,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A201" t="s">
         <v>25</v>
       </c>
@@ -46076,7 +46076,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A202" t="s">
         <v>25</v>
       </c>
@@ -46093,7 +46093,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A203" t="s">
         <v>25</v>
       </c>
@@ -46110,7 +46110,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A204" t="s">
         <v>25</v>
       </c>
@@ -46127,7 +46127,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A205" t="s">
         <v>25</v>
       </c>
@@ -46144,7 +46144,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A206" t="s">
         <v>25</v>
       </c>
@@ -46161,7 +46161,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A207" t="s">
         <v>25</v>
       </c>
@@ -46178,7 +46178,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A208" t="s">
         <v>25</v>
       </c>
@@ -46195,7 +46195,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A209" t="s">
         <v>25</v>
       </c>
@@ -46212,7 +46212,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A210" t="s">
         <v>25</v>
       </c>
@@ -46229,7 +46229,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A211" t="s">
         <v>25</v>
       </c>
@@ -46246,7 +46246,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A212" t="s">
         <v>25</v>
       </c>
@@ -46263,7 +46263,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A213" t="s">
         <v>28</v>
       </c>
@@ -46280,7 +46280,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A214" t="s">
         <v>28</v>
       </c>
@@ -46297,7 +46297,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A215" t="s">
         <v>28</v>
       </c>
@@ -46314,7 +46314,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A216" t="s">
         <v>28</v>
       </c>
@@ -46331,7 +46331,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A217" t="s">
         <v>28</v>
       </c>
@@ -46348,7 +46348,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A218" t="s">
         <v>28</v>
       </c>
@@ -46365,7 +46365,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A219" t="s">
         <v>28</v>
       </c>
@@ -46382,7 +46382,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A220" t="s">
         <v>28</v>
       </c>
@@ -46399,7 +46399,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A221" t="s">
         <v>28</v>
       </c>
@@ -46416,7 +46416,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A222" t="s">
         <v>28</v>
       </c>
@@ -46433,7 +46433,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A223" t="s">
         <v>28</v>
       </c>
@@ -46450,7 +46450,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A224" t="s">
         <v>28</v>
       </c>
@@ -46467,7 +46467,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A225" t="s">
         <v>28</v>
       </c>
@@ -46484,7 +46484,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A226" t="s">
         <v>28</v>
       </c>
@@ -46501,7 +46501,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A227" t="s">
         <v>28</v>
       </c>
@@ -46518,7 +46518,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A228" t="s">
         <v>29</v>
       </c>
@@ -46535,7 +46535,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A229" t="s">
         <v>29</v>
       </c>
@@ -46552,7 +46552,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A230" t="s">
         <v>29</v>
       </c>
@@ -46569,7 +46569,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A231" t="s">
         <v>30</v>
       </c>
@@ -46586,7 +46586,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A232" t="s">
         <v>30</v>
       </c>
@@ -46603,7 +46603,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A233" t="s">
         <v>30</v>
       </c>
@@ -46620,7 +46620,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A234" t="s">
         <v>30</v>
       </c>
@@ -46637,7 +46637,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A235" t="s">
         <v>30</v>
       </c>
@@ -46654,7 +46654,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A236" t="s">
         <v>31</v>
       </c>
@@ -46671,7 +46671,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A237" t="s">
         <v>31</v>
       </c>
@@ -46688,7 +46688,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A238" t="s">
         <v>31</v>
       </c>
@@ -46705,7 +46705,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A239" t="s">
         <v>31</v>
       </c>
@@ -46722,7 +46722,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A240" t="s">
         <v>31</v>
       </c>
@@ -46739,7 +46739,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A241" t="s">
         <v>31</v>
       </c>
@@ -46756,7 +46756,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A242" t="s">
         <v>31</v>
       </c>
@@ -46773,7 +46773,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A243" t="s">
         <v>31</v>
       </c>
@@ -46790,7 +46790,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A244" t="s">
         <v>31</v>
       </c>
@@ -46807,7 +46807,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A245" t="s">
         <v>31</v>
       </c>
@@ -46824,7 +46824,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A246" t="s">
         <v>31</v>
       </c>
@@ -46841,7 +46841,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A247" t="s">
         <v>31</v>
       </c>
@@ -46858,7 +46858,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A248" t="s">
         <v>31</v>
       </c>
@@ -46875,7 +46875,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A249" t="s">
         <v>31</v>
       </c>
@@ -46892,7 +46892,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A250" t="s">
         <v>31</v>
       </c>
@@ -46909,7 +46909,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A251" t="s">
         <v>31</v>
       </c>
@@ -46926,7 +46926,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A252" t="s">
         <v>31</v>
       </c>
@@ -46943,7 +46943,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A253" t="s">
         <v>31</v>
       </c>
@@ -46960,7 +46960,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A254" t="s">
         <v>31</v>
       </c>
@@ -46977,7 +46977,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A255" t="s">
         <v>31</v>
       </c>
@@ -46994,7 +46994,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A256" t="s">
         <v>31</v>
       </c>
@@ -47011,7 +47011,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A257" t="s">
         <v>31</v>
       </c>
@@ -47028,7 +47028,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A258" t="s">
         <v>31</v>
       </c>
@@ -47045,7 +47045,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A259" t="s">
         <v>31</v>
       </c>
@@ -47062,7 +47062,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A260" t="s">
         <v>31</v>
       </c>
@@ -47079,7 +47079,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A261" t="s">
         <v>31</v>
       </c>
@@ -47096,7 +47096,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A262" t="s">
         <v>31</v>
       </c>
@@ -47113,7 +47113,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A263" t="s">
         <v>31</v>
       </c>
@@ -47130,7 +47130,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A264" t="s">
         <v>32</v>
       </c>
@@ -47147,7 +47147,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A265" t="s">
         <v>35</v>
       </c>
@@ -47164,7 +47164,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A266" t="s">
         <v>35</v>
       </c>
@@ -47181,7 +47181,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A267" t="s">
         <v>35</v>
       </c>
@@ -47198,7 +47198,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A268" t="s">
         <v>35</v>
       </c>
@@ -47215,7 +47215,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A269" t="s">
         <v>35</v>
       </c>
@@ -47232,7 +47232,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A270" t="s">
         <v>35</v>
       </c>
@@ -47249,7 +47249,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A271" t="s">
         <v>35</v>
       </c>
@@ -47266,7 +47266,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A272" t="s">
         <v>35</v>
       </c>
@@ -47283,7 +47283,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A273" t="s">
         <v>37</v>
       </c>
@@ -47300,7 +47300,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A274" t="s">
         <v>37</v>
       </c>
@@ -47317,7 +47317,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A275" t="s">
         <v>37</v>
       </c>
@@ -47334,7 +47334,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A276" t="s">
         <v>37</v>
       </c>
@@ -47351,7 +47351,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A277" t="s">
         <v>37</v>
       </c>
@@ -47368,7 +47368,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A278" t="s">
         <v>37</v>
       </c>
@@ -47385,7 +47385,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A279" t="s">
         <v>37</v>
       </c>
@@ -47402,7 +47402,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A280" t="s">
         <v>37</v>
       </c>
@@ -47419,7 +47419,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A281" t="s">
         <v>37</v>
       </c>
@@ -47436,7 +47436,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A282" t="s">
         <v>37</v>
       </c>
@@ -47453,7 +47453,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A283" t="s">
         <v>37</v>
       </c>
@@ -47470,7 +47470,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A284" t="s">
         <v>37</v>
       </c>
@@ -47487,7 +47487,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A285" t="s">
         <v>37</v>
       </c>
@@ -47504,7 +47504,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A286" t="s">
         <v>37</v>
       </c>
@@ -47521,7 +47521,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A287" t="s">
         <v>37</v>
       </c>
@@ -47538,7 +47538,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A288" t="s">
         <v>37</v>
       </c>
@@ -47555,7 +47555,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A289" t="s">
         <v>37</v>
       </c>
@@ -47572,7 +47572,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A290" t="s">
         <v>37</v>
       </c>
@@ -47589,7 +47589,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A291" t="s">
         <v>37</v>
       </c>
@@ -47606,7 +47606,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A292" t="s">
         <v>37</v>
       </c>
@@ -47623,7 +47623,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A293" t="s">
         <v>37</v>
       </c>
@@ -47640,7 +47640,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A294" t="s">
         <v>37</v>
       </c>
@@ -47657,7 +47657,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A295" t="s">
         <v>37</v>
       </c>
@@ -47674,7 +47674,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A296" t="s">
         <v>37</v>
       </c>
@@ -47691,7 +47691,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A297" t="s">
         <v>37</v>
       </c>
@@ -47708,7 +47708,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A298" t="s">
         <v>37</v>
       </c>
@@ -47725,7 +47725,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A299" t="s">
         <v>37</v>
       </c>
@@ -47742,7 +47742,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A300" t="s">
         <v>37</v>
       </c>
@@ -47759,7 +47759,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A301" t="s">
         <v>38</v>
       </c>
@@ -47776,7 +47776,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A302" t="s">
         <v>38</v>
       </c>
@@ -47793,7 +47793,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A303" t="s">
         <v>38</v>
       </c>
@@ -47810,7 +47810,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A304" t="s">
         <v>38</v>
       </c>
@@ -47827,7 +47827,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A305" t="s">
         <v>38</v>
       </c>
@@ -47844,7 +47844,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A306" t="s">
         <v>39</v>
       </c>
@@ -47861,7 +47861,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A307" t="s">
         <v>39</v>
       </c>
@@ -47878,7 +47878,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A308" t="s">
         <v>39</v>
       </c>
@@ -47895,7 +47895,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A309" t="s">
         <v>39</v>
       </c>
@@ -47912,7 +47912,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A310" t="s">
         <v>39</v>
       </c>
@@ -47929,7 +47929,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A311" t="s">
         <v>39</v>
       </c>
@@ -47946,7 +47946,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A312" t="s">
         <v>39</v>
       </c>
@@ -47963,7 +47963,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A313" t="s">
         <v>39</v>
       </c>
@@ -47980,7 +47980,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A314" t="s">
         <v>39</v>
       </c>
@@ -47997,7 +47997,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A315" t="s">
         <v>39</v>
       </c>
@@ -48014,7 +48014,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A316" t="s">
         <v>39</v>
       </c>
@@ -48031,7 +48031,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A317" t="s">
         <v>39</v>
       </c>
@@ -48048,7 +48048,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A318" t="s">
         <v>39</v>
       </c>
@@ -48065,7 +48065,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A319" t="s">
         <v>39</v>
       </c>
@@ -48082,7 +48082,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A320" t="s">
         <v>39</v>
       </c>
@@ -48099,7 +48099,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A321" t="s">
         <v>39</v>
       </c>
@@ -48116,7 +48116,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A322" t="s">
         <v>39</v>
       </c>
@@ -48133,7 +48133,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A323" t="s">
         <v>39</v>
       </c>
@@ -48150,7 +48150,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A324" t="s">
         <v>39</v>
       </c>
@@ -48167,7 +48167,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A325" t="s">
         <v>39</v>
       </c>
@@ -48184,7 +48184,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A326" t="s">
         <v>39</v>
       </c>
@@ -48201,7 +48201,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A327" t="s">
         <v>39</v>
       </c>
@@ -48218,7 +48218,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A328" t="s">
         <v>39</v>
       </c>
@@ -48235,7 +48235,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A329" t="s">
         <v>39</v>
       </c>
@@ -48252,7 +48252,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A330" t="s">
         <v>39</v>
       </c>
@@ -48269,7 +48269,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A331" t="s">
         <v>39</v>
       </c>
@@ -48286,7 +48286,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A332" t="s">
         <v>39</v>
       </c>
@@ -48303,7 +48303,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A333" t="s">
         <v>39</v>
       </c>
@@ -48320,7 +48320,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A334" t="s">
         <v>39</v>
       </c>
@@ -48337,7 +48337,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A335" t="s">
         <v>39</v>
       </c>
@@ -48354,7 +48354,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A336" t="s">
         <v>39</v>
       </c>
@@ -48371,7 +48371,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A337" t="s">
         <v>40</v>
       </c>
@@ -48388,7 +48388,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A338" t="s">
         <v>40</v>
       </c>
@@ -48405,7 +48405,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A339" t="s">
         <v>40</v>
       </c>
@@ -48422,7 +48422,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A340" t="s">
         <v>40</v>
       </c>
@@ -48439,7 +48439,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A341" t="s">
         <v>40</v>
       </c>
@@ -48456,7 +48456,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A342" t="s">
         <v>40</v>
       </c>
@@ -48473,7 +48473,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A343" t="s">
         <v>40</v>
       </c>
@@ -48490,7 +48490,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A344" t="s">
         <v>40</v>
       </c>
@@ -48507,7 +48507,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A345" t="s">
         <v>40</v>
       </c>
@@ -48524,7 +48524,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A346" t="s">
         <v>40</v>
       </c>
@@ -48541,7 +48541,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A347" t="s">
         <v>40</v>
       </c>
@@ -48558,7 +48558,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A348" t="s">
         <v>40</v>
       </c>
@@ -48575,7 +48575,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A349" t="s">
         <v>40</v>
       </c>
@@ -48592,7 +48592,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A350" t="s">
         <v>40</v>
       </c>
@@ -48609,7 +48609,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A351" t="s">
         <v>40</v>
       </c>
@@ -48626,7 +48626,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A352" t="s">
         <v>40</v>
       </c>
@@ -48643,7 +48643,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A353" t="s">
         <v>40</v>
       </c>
@@ -48660,7 +48660,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A354" t="s">
         <v>40</v>
       </c>
@@ -48677,7 +48677,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A355" t="s">
         <v>42</v>
       </c>
@@ -48694,7 +48694,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A356" t="s">
         <v>42</v>
       </c>
@@ -48711,7 +48711,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A357" t="s">
         <v>42</v>
       </c>
@@ -48728,7 +48728,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A358" t="s">
         <v>43</v>
       </c>
@@ -48745,7 +48745,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A359" t="s">
         <v>43</v>
       </c>
@@ -48762,7 +48762,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A360" t="s">
         <v>43</v>
       </c>
@@ -48779,7 +48779,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A361" t="s">
         <v>43</v>
       </c>
@@ -48796,7 +48796,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A362" t="s">
         <v>43</v>
       </c>
@@ -48813,7 +48813,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A363" t="s">
         <v>43</v>
       </c>
@@ -48830,7 +48830,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A364" t="s">
         <v>43</v>
       </c>
@@ -48847,7 +48847,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A365" t="s">
         <v>43</v>
       </c>
@@ -48864,7 +48864,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A366" t="s">
         <v>43</v>
       </c>
@@ -48881,7 +48881,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A367" t="s">
         <v>43</v>
       </c>
@@ -48898,7 +48898,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A368" t="s">
         <v>43</v>
       </c>
@@ -48915,7 +48915,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A369" t="s">
         <v>43</v>
       </c>
@@ -48932,7 +48932,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A370" t="s">
         <v>43</v>
       </c>
@@ -48949,7 +48949,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A371" t="s">
         <v>43</v>
       </c>
@@ -48966,7 +48966,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A372" t="s">
         <v>43</v>
       </c>
@@ -48983,7 +48983,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A373" t="s">
         <v>43</v>
       </c>
@@ -49000,7 +49000,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A374" t="s">
         <v>43</v>
       </c>
@@ -49017,7 +49017,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A375" t="s">
         <v>43</v>
       </c>
@@ -49034,7 +49034,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A376" t="s">
         <v>43</v>
       </c>
@@ -49051,7 +49051,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A377" t="s">
         <v>43</v>
       </c>
@@ -49068,7 +49068,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A378" t="s">
         <v>43</v>
       </c>
@@ -49085,7 +49085,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A379" t="s">
         <v>43</v>
       </c>
@@ -49102,7 +49102,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A380" t="s">
         <v>43</v>
       </c>
@@ -49119,7 +49119,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A381" t="s">
         <v>43</v>
       </c>
@@ -49136,7 +49136,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A382" t="s">
         <v>43</v>
       </c>
@@ -49153,7 +49153,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A383" t="s">
         <v>43</v>
       </c>
@@ -49170,7 +49170,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A384" t="s">
         <v>43</v>
       </c>
@@ -49187,7 +49187,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A385" t="s">
         <v>43</v>
       </c>
@@ -49204,7 +49204,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A386" t="s">
         <v>43</v>
       </c>
@@ -49221,7 +49221,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A387" t="s">
         <v>43</v>
       </c>
@@ -49238,7 +49238,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A388" t="s">
         <v>43</v>
       </c>
@@ -49255,7 +49255,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A389" t="s">
         <v>43</v>
       </c>
@@ -49272,7 +49272,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A390" t="s">
         <v>45</v>
       </c>
@@ -49289,7 +49289,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A391" t="s">
         <v>45</v>
       </c>
@@ -49306,7 +49306,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A392" t="s">
         <v>45</v>
       </c>
@@ -49323,7 +49323,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A393" t="s">
         <v>45</v>
       </c>
@@ -49340,7 +49340,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A394" t="s">
         <v>45</v>
       </c>
@@ -49357,7 +49357,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A395" t="s">
         <v>45</v>
       </c>
@@ -49374,7 +49374,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A396" t="s">
         <v>45</v>
       </c>
@@ -49391,7 +49391,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A397" t="s">
         <v>45</v>
       </c>
@@ -49408,7 +49408,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A398" t="s">
         <v>45</v>
       </c>
@@ -49425,7 +49425,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A399" t="s">
         <v>45</v>
       </c>
@@ -49442,7 +49442,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A400" t="s">
         <v>45</v>
       </c>
@@ -49459,7 +49459,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A401" t="s">
         <v>45</v>
       </c>
@@ -49476,7 +49476,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A402" t="s">
         <v>45</v>
       </c>
@@ -49493,7 +49493,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A403" t="s">
         <v>45</v>
       </c>
@@ -49510,7 +49510,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A404" t="s">
         <v>45</v>
       </c>
@@ -49527,7 +49527,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A405" t="s">
         <v>45</v>
       </c>
@@ -49544,7 +49544,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A406" t="s">
         <v>45</v>
       </c>
@@ -49561,7 +49561,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A407" t="s">
         <v>45</v>
       </c>
@@ -49578,7 +49578,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A408" t="s">
         <v>45</v>
       </c>
@@ -49595,7 +49595,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A409" t="s">
         <v>45</v>
       </c>
@@ -49612,7 +49612,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A410" t="s">
         <v>45</v>
       </c>
@@ -49629,7 +49629,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A411" t="s">
         <v>45</v>
       </c>
@@ -49646,7 +49646,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A412" t="s">
         <v>45</v>
       </c>
@@ -49663,7 +49663,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A413" t="s">
         <v>45</v>
       </c>
@@ -49680,7 +49680,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A414" t="s">
         <v>45</v>
       </c>
@@ -49706,44 +49706,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8416FAB6-AF47-764A-A029-5064BDD10E0E}">
   <dimension ref="A3:Z36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="3" max="25" width="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.8125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.6875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24.1875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.6875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.1875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.6875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.1875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.6875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="24.1875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.6875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24.1875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.6875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.1875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20.6875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="24.1875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="20.6875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="24.1875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.6875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.1875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.6875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="24.1875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20.6875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="24.1875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20.6875" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="29" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>126</v>
       </c>
@@ -49751,7 +49751,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>89</v>
       </c>
@@ -49831,7 +49831,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A5" s="5" t="s">
         <v>94</v>
       </c>
@@ -49889,7 +49889,7 @@
         <v>5745</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A6" s="5" t="s">
         <v>95</v>
       </c>
@@ -49949,7 +49949,7 @@
         <v>6026</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A7" s="5" t="s">
         <v>96</v>
       </c>
@@ -50007,7 +50007,7 @@
         <v>5788</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A8" s="5" t="s">
         <v>97</v>
       </c>
@@ -50073,7 +50073,7 @@
         <v>7267</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A9" s="5" t="s">
         <v>98</v>
       </c>
@@ -50133,7 +50133,7 @@
         <v>5484</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A10" s="5" t="s">
         <v>92</v>
       </c>
@@ -50189,7 +50189,7 @@
         <v>5569</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A11" s="5" t="s">
         <v>99</v>
       </c>
@@ -50241,7 +50241,7 @@
         <v>4199</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A12" s="5" t="s">
         <v>100</v>
       </c>
@@ -50301,7 +50301,7 @@
         <v>5727</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A13" s="5" t="s">
         <v>101</v>
       </c>
@@ -50363,7 +50363,7 @@
         <v>6694</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A14" s="5" t="s">
         <v>102</v>
       </c>
@@ -50425,7 +50425,7 @@
         <v>5640</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A15" s="5" t="s">
         <v>103</v>
       </c>
@@ -50483,7 +50483,7 @@
         <v>5108</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A16" s="5" t="s">
         <v>104</v>
       </c>
@@ -50545,7 +50545,7 @@
         <v>6458</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A17" s="5" t="s">
         <v>105</v>
       </c>
@@ -50603,7 +50603,7 @@
         <v>6335</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A18" s="5" t="s">
         <v>106</v>
       </c>
@@ -50659,7 +50659,7 @@
         <v>5140</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A19" s="5" t="s">
         <v>122</v>
       </c>
@@ -50719,7 +50719,7 @@
         <v>5170</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A20" s="5" t="s">
         <v>107</v>
       </c>
@@ -50779,7 +50779,7 @@
         <v>5985</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A21" s="5" t="s">
         <v>108</v>
       </c>
@@ -50843,7 +50843,7 @@
         <v>6377</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A22" s="5" t="s">
         <v>109</v>
       </c>
@@ -50905,7 +50905,7 @@
         <v>5794</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A23" s="5" t="s">
         <v>110</v>
       </c>
@@ -50967,7 +50967,7 @@
         <v>6665</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A24" s="5" t="s">
         <v>111</v>
       </c>
@@ -51031,7 +51031,7 @@
         <v>6797</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A25" s="5" t="s">
         <v>112</v>
       </c>
@@ -51089,7 +51089,7 @@
         <v>5768</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A26" s="5" t="s">
         <v>113</v>
       </c>
@@ -51145,7 +51145,7 @@
         <v>4764</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A27" s="5" t="s">
         <v>93</v>
       </c>
@@ -51201,7 +51201,7 @@
         <v>5160</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A28" s="5" t="s">
         <v>114</v>
       </c>
@@ -51257,7 +51257,7 @@
         <v>4810</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A29" s="5" t="s">
         <v>115</v>
       </c>
@@ -51313,7 +51313,7 @@
         <v>4940</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A30" s="5" t="s">
         <v>116</v>
       </c>
@@ -51371,7 +51371,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A31" s="5" t="s">
         <v>117</v>
       </c>
@@ -51431,7 +51431,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A32" s="5" t="s">
         <v>118</v>
       </c>
@@ -51485,7 +51485,7 @@
         <v>4578</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A33" s="5" t="s">
         <v>119</v>
       </c>
@@ -51541,7 +51541,7 @@
         <v>4889</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A34" s="5" t="s">
         <v>120</v>
       </c>
@@ -51595,7 +51595,7 @@
         <v>4824</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A35" s="5" t="s">
         <v>121</v>
       </c>
@@ -51643,7 +51643,7 @@
         <v>3539</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A36" s="5" t="s">
         <v>90</v>
       </c>
@@ -51736,21 +51736,21 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.8125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.8125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.3125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -51761,7 +51761,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -51773,7 +51773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -51785,7 +51785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -51797,7 +51797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -51809,7 +51809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -51821,7 +51821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -51833,7 +51833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -51845,7 +51845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -51857,7 +51857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -51869,7 +51869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -51899,9 +51899,9 @@
       <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -51912,7 +51912,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>0</v>
       </c>
@@ -51923,7 +51923,7 @@
         <v>42.188436830835101</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -51934,7 +51934,7 @@
         <v>23.102893890675201</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -51945,7 +51945,7 @@
         <v>17.110396570203601</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -51956,7 +51956,7 @@
         <v>6.4265809217577701</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>4</v>
       </c>
@@ -51967,7 +51967,7 @@
         <v>12.699570815450601</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>5</v>
       </c>
@@ -51978,7 +51978,7 @@
         <v>43.869098712446402</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>6</v>
       </c>
@@ -51989,7 +51989,7 @@
         <v>178.50805585392001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>7</v>
       </c>
@@ -52000,7 +52000,7 @@
         <v>306.04940923737797</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>8</v>
       </c>
@@ -52011,7 +52011,7 @@
         <v>427.54457572502599</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>9</v>
       </c>
@@ -52022,7 +52022,7 @@
         <v>433.30182599355498</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>10</v>
       </c>
@@ -52033,7 +52033,7 @@
         <v>481.66523143164602</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>11</v>
       </c>
@@ -52044,7 +52044,7 @@
         <v>456.88673139158499</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>12</v>
       </c>
@@ -52055,7 +52055,7 @@
         <v>548.64208242949996</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>13</v>
       </c>
@@ -52066,7 +52066,7 @@
         <v>537.69815418023904</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>14</v>
       </c>
@@ -52077,7 +52077,7 @@
         <v>540.51357220412604</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>15</v>
       </c>
@@ -52088,7 +52088,7 @@
         <v>406.31912568305899</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>16</v>
       </c>
@@ -52099,7 +52099,7 @@
         <v>496.845644983461</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>17</v>
       </c>
@@ -52110,7 +52110,7 @@
         <v>550.23289183222903</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>18</v>
       </c>
@@ -52121,7 +52121,7 @@
         <v>599.16997792494396</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>19</v>
       </c>
@@ -52132,7 +52132,7 @@
         <v>583.39072847682098</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>20</v>
       </c>
@@ -52143,7 +52143,7 @@
         <v>353.90507726269198</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>21</v>
       </c>
@@ -52154,7 +52154,7 @@
         <v>308.13812154696097</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>22</v>
       </c>
@@ -52165,7 +52165,7 @@
         <v>237.98783185840699</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>23</v>
       </c>
@@ -52190,9 +52190,9 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -52203,7 +52203,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -52214,7 +52214,7 @@
         <v>288.256215</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -52225,7 +52225,7 @@
         <v>322.50332100000003</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -52236,7 +52236,7 @@
         <v>334.56444399999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -52247,7 +52247,7 @@
         <v>315.160417</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -52258,7 +52258,7 @@
         <v>321.95644199999998</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -52269,7 +52269,7 @@
         <v>311.87220600000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -52291,12 +52291,12 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X40" sqref="X40"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -52307,7 +52307,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>0</v>
       </c>
@@ -52318,7 +52318,7 @@
         <v>71.805139199999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -52329,7 +52329,7 @@
         <v>70.165058900000005</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -52340,7 +52340,7 @@
         <v>69.186495199999996</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -52351,7 +52351,7 @@
         <v>67.538049299999997</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>4</v>
       </c>
@@ -52362,7 +52362,7 @@
         <v>68.261802599999996</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>5</v>
       </c>
@@ -52373,7 +52373,7 @@
         <v>81.708154500000006</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>6</v>
       </c>
@@ -52384,7 +52384,7 @@
         <v>86.996777699999996</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>7</v>
       </c>
@@ -52395,7 +52395,7 @@
         <v>94.477980700000003</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>8</v>
       </c>
@@ -52406,7 +52406,7 @@
         <v>103.337272</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>9</v>
       </c>
@@ -52417,7 +52417,7 @@
         <v>106.14285700000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>10</v>
       </c>
@@ -52428,7 +52428,7 @@
         <v>110.46071000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>11</v>
       </c>
@@ -52439,7 +52439,7 @@
         <v>109.806904</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>12</v>
       </c>
@@ -52450,7 +52450,7 @@
         <v>117.197397</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>13</v>
       </c>
@@ -52461,7 +52461,7 @@
         <v>115.30944599999999</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>14</v>
       </c>
@@ -52472,7 +52472,7 @@
         <v>115.732899</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>15</v>
       </c>
@@ -52483,7 +52483,7 @@
         <v>106.637158</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>16</v>
       </c>
@@ -52494,7 +52494,7 @@
         <v>113.32745300000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>17</v>
       </c>
@@ -52505,7 +52505,7 @@
         <v>122.752759</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>18</v>
       </c>
@@ -52516,7 +52516,7 @@
         <v>123.49227399999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>19</v>
       </c>
@@ -52527,7 +52527,7 @@
         <v>121.48454700000001</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>20</v>
       </c>
@@ -52538,7 +52538,7 @@
         <v>102.35761599999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>21</v>
       </c>
@@ -52549,7 +52549,7 @@
         <v>96.056353599999994</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>22</v>
       </c>
@@ -52560,7 +52560,7 @@
         <v>88.265486699999997</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>23</v>
       </c>
@@ -52585,9 +52585,9 @@
       <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -52598,7 +52598,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -52609,7 +52609,7 @@
         <v>94.335980662983602</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -52620,7 +52620,7 @@
         <v>97.053477804963194</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -52631,7 +52631,7 @@
         <v>98.617499999999893</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -52642,7 +52642,7 @@
         <v>96.874259937975793</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -52653,7 +52653,7 @@
         <v>97.008528784648306</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -52664,7 +52664,7 @@
         <v>97.784117450783896</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -52689,9 +52689,9 @@
       <selection activeCell="Z36" sqref="Z36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -52699,7 +52699,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -52707,7 +52707,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -52715,7 +52715,7 @@
         <v>2773</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -52723,7 +52723,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -52731,7 +52731,7 @@
         <v>3113</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -52739,7 +52739,7 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -52747,7 +52747,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -52769,9 +52769,9 @@
       <selection activeCell="B2" sqref="B2:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -52779,7 +52779,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>0</v>
       </c>
@@ -52787,7 +52787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -52795,7 +52795,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -52803,7 +52803,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -52811,7 +52811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>4</v>
       </c>
@@ -52819,7 +52819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>5</v>
       </c>
@@ -52827,7 +52827,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>6</v>
       </c>
@@ -52835,7 +52835,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>7</v>
       </c>
@@ -52843,7 +52843,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>8</v>
       </c>
@@ -52851,7 +52851,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>9</v>
       </c>
@@ -52859,7 +52859,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>10</v>
       </c>
@@ -52867,7 +52867,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>11</v>
       </c>
@@ -52875,7 +52875,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>12</v>
       </c>
@@ -52883,7 +52883,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>13</v>
       </c>
@@ -52891,7 +52891,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>14</v>
       </c>
@@ -52899,7 +52899,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>15</v>
       </c>
@@ -52907,7 +52907,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>16</v>
       </c>
@@ -52915,7 +52915,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>17</v>
       </c>
@@ -52923,7 +52923,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>18</v>
       </c>
@@ -52931,7 +52931,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>19</v>
       </c>
@@ -52939,7 +52939,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>20</v>
       </c>
@@ -52947,7 +52947,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>21</v>
       </c>
@@ -52955,7 +52955,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>22</v>
       </c>
@@ -52963,7 +52963,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>23</v>
       </c>
@@ -52985,14 +52985,14 @@
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -53003,7 +53003,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
@@ -53014,7 +53014,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
@@ -53025,7 +53025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
@@ -53036,7 +53036,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" s="7" t="s">
         <v>30</v>
       </c>
@@ -53047,7 +53047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
@@ -53058,7 +53058,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
@@ -53069,7 +53069,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="8" t="s">
         <v>44</v>
       </c>
@@ -53080,7 +53080,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" s="7" t="s">
         <v>45</v>
       </c>
